--- a/medicine/Enfance/Chuck_Wendig/Chuck_Wendig.xlsx
+++ b/medicine/Enfance/Chuck_Wendig/Chuck_Wendig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chuck Wendig, né le 22 avril 1976 à New Hope en Pennsylvanie, est un écrivain américain de science-fiction, fantasy, fantastique et horreur.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles David Wendig est un écrivain, scénariste et blogueur américain originaire et vivant en Pennsylvanie. Avant de devenir auteur de romans sous le pseudonyme de Chuck Wendig, il commence par écrire des jeux vidéo. 
 Il s’essaye par ailleurs à l’écriture scénaristique et co-écrit Collapsus avec Lance Weiler (en), un projet interactif sélectionné pour les Emmy Awards. Son premier recueil de nouvelles, Irregular Creatures, est publié en janvier 2011, rapidement suivi de son premier roman, Double Dead, publié en novembre de la même année.
@@ -549,43 +563,292 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Univers Star Wars
-Série Riposte
-Riposte, Pocket, coll. « Star Wars » no 133, 2016 ((en) Aftermath, 2015), trad. Nicolas Ancion et Axelle Demoulin, 470 p.  (ISBN 978-2-266-25601-8)
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Riposte</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Riposte, Pocket, coll. « Star Wars » no 133, 2016 ((en) Aftermath, 2015), trad. Nicolas Ancion et Axelle Demoulin, 470 p.  (ISBN 978-2-266-25601-8)
 Dette de vie, Pocket, coll. « Star Wars » no 156, 2018 ((en) Life Debt, 2016), trad. Nicolas Ancion et Axelle Demoulin, 564 p.  (ISBN 978-2-266-28354-0)
-Chute de l'Empire, Pocket, coll. « Star Wars » no 159, 2019 ((en) Empire's End, 2017), trad. Nicolas Ancion et Axelle Demoulin, 549 p.  (ISBN 978-2-266-28357-1)
-Série Miriam Black
-Blackbird, Panini, coll. « Éclipse », 2014 ((en) Blackbirds, 2012), trad. Cyrielle Lebourg-Thieullent, 435 p.  (ISBN 978-2-8094-3957-1)
+Chute de l'Empire, Pocket, coll. « Star Wars » no 159, 2019 ((en) Empire's End, 2017), trad. Nicolas Ancion et Axelle Demoulin, 549 p.  (ISBN 978-2-266-28357-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chuck_Wendig</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chuck_Wendig</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Miriam Black</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Blackbird, Panini, coll. « Éclipse », 2014 ((en) Blackbirds, 2012), trad. Cyrielle Lebourg-Thieullent, 435 p.  (ISBN 978-2-8094-3957-1)
 (en) Mockingbird, 2012
 (en) The Cormorant, 2013
 (en) Thunderbird, 2017
 (en) The Raptor &amp; the Wren, 2018
-(en) Vultures, 2019
-Série Mookie Pearl
-(en) The Blue Blazes, 2013
-(en) The Hellsblood Bride, 2015
-Univers Spirit of the Century
-Série Dinocalypse
-(en) Dinocalypse Now, 2012
-(en) Beyond Dinocalypse, 2013
-Série Heartland
-(en) Under the Empyrean Sky, 2013
+(en) Vultures, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chuck_Wendig</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chuck_Wendig</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Mookie Pearl</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) The Blue Blazes, 2013
+(en) The Hellsblood Bride, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chuck_Wendig</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chuck_Wendig</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Univers Spirit of the Century</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Dinocalypse</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Dinocalypse Now, 2012
+(en) Beyond Dinocalypse, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chuck_Wendig</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chuck_Wendig</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Heartland</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Under the Empyrean Sky, 2013
 (en) Blightborn, 2014
-(en) The Harvest, 2015
-Série Wanderers
-Les Somnambules, Sonatine, 2021 ((en) Wanderers, 2019), trad. Paul Simon Bouffartigue, 1174 p.  (ISBN 978-2-35584-820-9)Réédition, Pocket, coll. « Imaginaire » no 7322, 2022, 1 312 p.  (ISBN 978-2-266-32408-3)
-(en) Wayward, 2022
-Romans indépendants
-(en) Double Dead, 2011
+(en) The Harvest, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chuck_Wendig</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chuck_Wendig</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Wanderers</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les Somnambules, Sonatine, 2021 ((en) Wanderers, 2019), trad. Paul Simon Bouffartigue, 1174 p.  (ISBN 978-2-35584-820-9)Réédition, Pocket, coll. « Imaginaire » no 7322, 2022, 1 312 p.  (ISBN 978-2-266-32408-3)
+(en) Wayward, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chuck_Wendig</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chuck_Wendig</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(en) Double Dead, 2011
 (en) Unclean Spirits, 2013
 (en) The Blue Blazes, 2013
 (en) Zeroes, 2015
 (en) Invasive, 2016
 (en) The Book of Accidents, 2021
 (en) Dust &amp; Grim, 2021
-(en) Black River Orchard, 2023
-Recueils de nouvelles
-(en) Irregular Creatures, 2011</t>
+(en) Black River Orchard, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chuck_Wendig</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chuck_Wendig</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(en) Irregular Creatures, 2011</t>
         </is>
       </c>
     </row>
